--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H2">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I2">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J2">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N2">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O2">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P2">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q2">
-        <v>7.996698495851445</v>
+        <v>0.3887875888586667</v>
       </c>
       <c r="R2">
-        <v>71.97028646266301</v>
+        <v>3.499088299728001</v>
       </c>
       <c r="S2">
-        <v>0.1218874723443958</v>
+        <v>0.009827138727963715</v>
       </c>
       <c r="T2">
-        <v>0.1218874723443958</v>
+        <v>0.009827138727963713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H3">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I3">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J3">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.369632</v>
       </c>
       <c r="O3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q3">
-        <v>8.09409281456711</v>
+        <v>0.4377117055857778</v>
       </c>
       <c r="R3">
-        <v>72.846835331104</v>
+        <v>3.939405350272</v>
       </c>
       <c r="S3">
-        <v>0.1233719783983774</v>
+        <v>0.01106376277666807</v>
       </c>
       <c r="T3">
-        <v>0.1233719783983774</v>
+        <v>0.01106376277666807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H4">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I4">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J4">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N4">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q4">
-        <v>2.265714995058111</v>
+        <v>0.2392149505511111</v>
       </c>
       <c r="R4">
-        <v>20.391434955523</v>
+        <v>2.15293455496</v>
       </c>
       <c r="S4">
-        <v>0.03453453621437608</v>
+        <v>0.006046485464646142</v>
       </c>
       <c r="T4">
-        <v>0.03453453621437608</v>
+        <v>0.006046485464646141</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>5.531285</v>
       </c>
       <c r="I5">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J5">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N5">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O5">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P5">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q5">
-        <v>12.36827837664056</v>
+        <v>11.11964548615333</v>
       </c>
       <c r="R5">
-        <v>111.314505389765</v>
+        <v>100.07680937538</v>
       </c>
       <c r="S5">
-        <v>0.1885200735481838</v>
+        <v>0.2810642673007961</v>
       </c>
       <c r="T5">
-        <v>0.1885200735481837</v>
+        <v>0.2810642673007961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.531285</v>
       </c>
       <c r="I6">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J6">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.369632</v>
       </c>
       <c r="O6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q6">
         <v>12.51891554856889</v>
@@ -818,10 +818,10 @@
         <v>112.67023993712</v>
       </c>
       <c r="S6">
-        <v>0.1908161191146107</v>
+        <v>0.316432734338572</v>
       </c>
       <c r="T6">
-        <v>0.1908161191146107</v>
+        <v>0.3164327343385719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.531285</v>
       </c>
       <c r="I7">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J7">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N7">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q7">
-        <v>3.50432041367389</v>
+        <v>6.841744750455555</v>
       </c>
       <c r="R7">
-        <v>31.53888372306501</v>
+        <v>61.5757027541</v>
       </c>
       <c r="S7">
-        <v>0.05341363785681896</v>
+        <v>0.1729344678965193</v>
       </c>
       <c r="T7">
-        <v>0.05341363785681895</v>
+        <v>0.1729344678965192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H8">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I8">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J8">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N8">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O8">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P8">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q8">
-        <v>8.21568914831189</v>
+        <v>2.924577420849333</v>
       </c>
       <c r="R8">
-        <v>73.94120233480702</v>
+        <v>26.321196787644</v>
       </c>
       <c r="S8">
-        <v>0.1252253769945838</v>
+        <v>0.07392269933237107</v>
       </c>
       <c r="T8">
-        <v>0.1252253769945838</v>
+        <v>0.07392269933237106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H9">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I9">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J9">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>20.369632</v>
       </c>
       <c r="O9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q9">
-        <v>8.315750623406222</v>
+        <v>3.292599372206222</v>
       </c>
       <c r="R9">
-        <v>74.84175561065601</v>
+        <v>29.633394349856</v>
       </c>
       <c r="S9">
-        <v>0.1267505364444026</v>
+        <v>0.08322495813527431</v>
       </c>
       <c r="T9">
-        <v>0.1267505364444026</v>
+        <v>0.08322495813527428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H10">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I10">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J10">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N10">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q10">
-        <v>2.327761901705223</v>
+        <v>1.799446955508889</v>
       </c>
       <c r="R10">
-        <v>20.949857115347</v>
+        <v>16.19502259958</v>
       </c>
       <c r="S10">
-        <v>0.03548026908425088</v>
+        <v>0.04548348602718933</v>
       </c>
       <c r="T10">
-        <v>0.03548026908425088</v>
+        <v>0.04548348602718932</v>
       </c>
     </row>
   </sheetData>
